--- a/meta/en/17-6-1.xlsx
+++ b/meta/en/17-6-1.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>1. Indicator information</t>
   </si>
@@ -100,77 +100,63 @@
     <t xml:space="preserve">17.6 Enhance North-South, South-South and triangular regional and international cooperation on and access to science, technology and innovation and enhance knowledge-sharing on mutually agreed terms, including through improved coordination among existing mechanisms, in particular at the United Nations level, and through a global technology facilitation mechanism </t>
   </si>
   <si>
-    <t>The indicator is currently broken down by the following subscription speeds:
-- 256 kbit/s to less than 2 Mbit/s subscriptions: Refers to all fixed broadband Internet subscriptions with advertised downstream speeds equal to, or greater than, 256 kbit/s and less than 2 Mbit/s.
-- 2 Mbit/s to less than 10 Mbit/s subscriptions: Refers to all fixed -broadband Internet subscriptions with advertised downstream speeds equal to, or greater than, 2 Mbit/s and less than 10 Mbit/s.
-- Equal to or above 10 Mbit/s subscriptions (4213_G10). Refers to all fixed -broadband Internet subscriptions with advertised downstream speeds equal to, or greater than, 10 Mbit/s.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Internet has become an increasingly important tool to provide access to information, and can help foster and enhance regional and international cooperation on, and access to, science, technology and innovations, and enhance knowledge sharing. High-speed Internet access is important to ensure that Internet users have quality access to the Internet and can take advantage of the growing amount of Internet content – including user-generated content –, services and information. </t>
-  </si>
-  <si>
-    <t>Based on an additional request, the State Committee of Information Technologies and Communications of the Kyrgyz Republic submits the data on the number of stationary Internet broadband subscriptions disaggregated by speed to the National Statistical Committee. 
-Data on the number of fixed (wired) broadband Internet subscribers are collected according to administrative statistical reporting forms on licensed types of activities in the field of electric and postal communication, approved by SAC under SCITC KR and the NSC KR. Licensed electric communication operators fill in these reporting forms on a quarterly basis.</t>
-  </si>
-  <si>
-    <t>According to the definition and methodology in the ITU Handbook on Telecommunications/ICT Administrative Data Collection Administrative Data Handbook.</t>
-  </si>
-  <si>
-    <t>The Agency develops annual reports on the Agency’s activities, which are freely available at the Agency’s official website and reflect the total number of Internet users, including wireless and mobile users.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">By Internet speed: 256 kbps to less than 2 Mbps, 2 Mbps to less than 10 Mbps, equal to or exceed 10 Mbps. </t>
-  </si>
-  <si>
-    <t>The ITU develops international definitions, standards and methodologies for measuring information society and information economy and, in close cooperation with other regional and international organizations and through thematic expert groups; the ITU is a founder and a key partner in the Partnership on Measuring ICT for Development, assisting to keep track of SDG targets, and a member of the UN Committee for the Coordination of Statistical Activities (CCSA).</t>
-  </si>
-  <si>
-    <t>National Statistical Committee of the Kyrgyz Republic (Department of Trade and Services Statistics, Information and Communication Technologies, and Tourism)</t>
-  </si>
-  <si>
-    <t>Tekeeva L.A.</t>
-  </si>
-  <si>
-    <t>Ltekeeva@stat.kg</t>
-  </si>
-  <si>
-    <t>0 (312) 32-47-25</t>
-  </si>
-  <si>
-    <t>www.stat.gov.kg</t>
-  </si>
-  <si>
     <t>17.6.1: Fixed broadband subscriptions per 100 inhabitants, by speed</t>
   </si>
   <si>
-    <t>The indicator defines fixed Internet broadband subscriptions, by speed, refers to the number of fixed-broadband subscriptions to the public Internet, split by advertised download speed (In March 2023, the series description was updated from “Fixed Internet broadband subscriptions per 100
-inhabitants, by speed” to “Fixed broadband subscriptions per 100 inhabitants, by speed”; content in the
-series is the same.)</t>
-  </si>
-  <si>
-    <t>This Indicator refers to fixed (wired) broadband technologies and does not include wireless broadband access technologies. Unit of measure: Per 100 inhabitants</t>
-  </si>
-  <si>
-    <t>The Kyrgyz Republic SDG National Reporting Platform: https://sustainabledevelopment-kyrgyzstan.github.io Data are released twice a year, In July and December, in the Wor​ld Telecommun​ic​ation/ICT Indicators
-Database​​ and the ITU DataHub, see https://datahub.itu.int/.  International Telecommunication Union (ITU) Handbook for the Collection of Administrative Data on
-Telecommunications/ICT 2020: https://www.itu.int/en/ITU-
-D/Statistics/Pages/publications/handbook.aspx  . URL:
-http://www.itu.int/en/ITU-D/Statistics/Pages/default.aspx
-References:
-ITU Handbook for the Collection of Administrative Data on Telecommunications/ICT 2020:
-https://www.itu.int/en/ITU-D/Statistics/Pages/publications/handbook.aspx</t>
+    <t xml:space="preserve">Service for Regulation and Supervision in the Communications Industry under the Ministry of Digital Development and Innovative Technologies of the Kyrgyz Republic </t>
+  </si>
+  <si>
+    <t>Langovaya A.A.</t>
+  </si>
+  <si>
+    <t>a.langovaya@nas.gov.kg</t>
+  </si>
+  <si>
+    <t>54-60-89</t>
+  </si>
+  <si>
+    <t>https://nas.gov.kg/</t>
+  </si>
+  <si>
+    <t>The indicator of the number of fixed broadband Internet subscribers by speed refers to the number of fixed broadband subscribers on the public Internet, divided by the advertised download speed</t>
+  </si>
+  <si>
+    <t>The indicator is currently divided into the following subscription speeds:
+-256 kbit/s to less than 2 Mbit/s: refers to all fixed broadband Internet subscriptions with advertised speeds downstream, equal to or exceeding 256 kbit/s and less than 2 Mbit/s .
+-2 Mbit/s to less than 10 Mbit/s: Applies to all fixed broadband Internet subscriptions with advertised downstream speeds equal to or greater than 2 Mbit/s and less than 10 Mbit/s.
+-Equal to or exceed 10 Mbit/s. Applies to all fixed broadband Internet subscriptions with advertised speeds at a low level equal to or exceeding 10 Mbit/s.</t>
+  </si>
+  <si>
+    <t>The Internet has become an increasingly important tool for providing access to information and can contribute to the development and expansion of regional and international cooperation in the field of science and technology, innovation and access to them, as well as the expansion of knowledge exchange. High-speed Internet access is essential to ensure that Internet users have high-quality Internet access and can use the growing amount of Internet content, including user-generated content, services, and information.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data collection on the number of fixed (wired) broadband Internet subscribers is carried out in accordance with the forms of administrative statistical reporting provided by licensees on a quarterly basis. </t>
+  </si>
+  <si>
+    <t>According to the administrative statistical reporting forms, licensees provide quarterly reports.</t>
+  </si>
+  <si>
+    <t>Administrative statistical reporting forms and instructions for completing them are publicly available on the website of the Service for Regulation and Supervision of the Communications Industry under the Ministry of Digital Development and Innovative Technologies of the Kyrgyz Republic. https://nas.gov.kg/dp/formy-otchetnosti/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -251,28 +237,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -283,10 +274,15 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -612,15 +608,15 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -628,8 +624,8 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>40</v>
+      <c r="B4" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -642,40 +638,40 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>35</v>
+      <c r="B6" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>36</v>
+      <c r="B7" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>37</v>
+      <c r="B8" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>38</v>
+      <c r="B9" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>39</v>
+      <c r="B10" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -684,20 +680,20 @@
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>41</v>
+      <c r="B12" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>28</v>
+      <c r="B13" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -705,7 +701,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -714,19 +710,21 @@
       </c>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="6"/>
+      <c r="B17" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -738,17 +736,13 @@
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="B19" s="6"/>
     </row>
     <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>42</v>
-      </c>
+      <c r="B20" s="6"/>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -766,32 +760,26 @@
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="B23" s="6"/>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="B25" s="6"/>
     </row>
     <row r="26" spans="1:2" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>43</v>
+      <c r="B26" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/meta/en/17-6-1.xlsx
+++ b/meta/en/17-6-1.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" codeName="Workbook________" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="2" r:id="rId1"/>
+    <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>1. Indicator information</t>
   </si>
@@ -103,68 +103,77 @@
     <t>17.6.1: Fixed broadband subscriptions per 100 inhabitants, by speed</t>
   </si>
   <si>
-    <t xml:space="preserve">Service for Regulation and Supervision in the Communications Industry under the Ministry of Digital Development and Innovative Technologies of the Kyrgyz Republic </t>
-  </si>
-  <si>
-    <t>Langovaya A.A.</t>
-  </si>
-  <si>
-    <t>a.langovaya@nas.gov.kg</t>
-  </si>
-  <si>
-    <t>54-60-89</t>
-  </si>
-  <si>
-    <t>https://nas.gov.kg/</t>
-  </si>
-  <si>
-    <t>The indicator of the number of fixed broadband Internet subscribers by speed refers to the number of fixed broadband subscribers on the public Internet, divided by the advertised download speed</t>
-  </si>
-  <si>
-    <t>The indicator is currently divided into the following subscription speeds:
--256 kbit/s to less than 2 Mbit/s: refers to all fixed broadband Internet subscriptions with advertised speeds downstream, equal to or exceeding 256 kbit/s and less than 2 Mbit/s .
--2 Mbit/s to less than 10 Mbit/s: Applies to all fixed broadband Internet subscriptions with advertised downstream speeds equal to or greater than 2 Mbit/s and less than 10 Mbit/s.
--Equal to or exceed 10 Mbit/s. Applies to all fixed broadband Internet subscriptions with advertised speeds at a low level equal to or exceeding 10 Mbit/s.</t>
-  </si>
-  <si>
-    <t>The Internet has become an increasingly important tool for providing access to information and can contribute to the development and expansion of regional and international cooperation in the field of science and technology, innovation and access to them, as well as the expansion of knowledge exchange. High-speed Internet access is essential to ensure that Internet users have high-quality Internet access and can use the growing amount of Internet content, including user-generated content, services, and information.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data collection on the number of fixed (wired) broadband Internet subscribers is carried out in accordance with the forms of administrative statistical reporting provided by licensees on a quarterly basis. </t>
-  </si>
-  <si>
-    <t>According to the administrative statistical reporting forms, licensees provide quarterly reports.</t>
-  </si>
-  <si>
-    <t>Administrative statistical reporting forms and instructions for completing them are publicly available on the website of the Service for Regulation and Supervision of the Communications Industry under the Ministry of Digital Development and Innovative Technologies of the Kyrgyz Republic. https://nas.gov.kg/dp/formy-otchetnosti/</t>
+    <t>1) Service for Regulation and Supervision in the Communications Industry under the Ministry of Digital Development and Innovative Technologies of the Kyrgyz Republic    2) National Statistical Committee of the Kyrgyz Republic (Department of Trade and Services Statistics, Information and Communication Technologies, and Tourism)</t>
+  </si>
+  <si>
+    <t>1) Langovaya A.A.  2) Tekeeva L.A.</t>
+  </si>
+  <si>
+    <t>1) a.langovaya@nas.gov.kg  2) Ltekeeva@stat.kg</t>
+  </si>
+  <si>
+    <t>1) 54-60-89  2) 0 (312) 32-47-25</t>
+  </si>
+  <si>
+    <t>1) https://nas.gov.kg/   2) www.stat.gov.kg</t>
+  </si>
+  <si>
+    <t>The indicator defines fixed Internet broadband subscriptions, by speed, refers to the number of fixed-broadband subscriptions to the public Internet, split by advertised download speed (In March 2023, the series description was updated from “Fixed Internet broadband subscriptions per 100
+inhabitants, by speed” to “Fixed broadband subscriptions per 100 inhabitants, by speed”; content in the
+series is the same.)</t>
+  </si>
+  <si>
+    <t>The indicator is currently broken down by the following subscription speeds:
+- 256 kbit/s to less than 2 Mbit/s subscriptions: Refers to all fixed broadband Internet subscriptions with advertised downstream speeds equal to, or greater than, 256 kbit/s and less than 2 Mbit/s.
+- 2 Mbit/s to less than 10 Mbit/s subscriptions: Refers to all fixed -broadband Internet subscriptions with advertised downstream speeds equal to, or greater than, 2 Mbit/s and less than 10 Mbit/s.
+- Equal to or above 10 Mbit/s subscriptions (4213_G10). Refers to all fixed -broadband Internet subscriptions with advertised downstream speeds equal to, or greater than, 10 Mbit/s.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Internet has become an increasingly important tool to provide access to information, and can help foster and enhance regional and international cooperation on, and access to, science, technology and innovations, and enhance knowledge sharing. High-speed Internet access is important to ensure that Internet users have quality access to the Internet and can take advantage of the growing amount of Internet content – including user-generated content –, services and information. </t>
+  </si>
+  <si>
+    <t>1) Data collection on the number of fixed (wired) broadband Internet subscribers is carried out in accordance with the forms of administrative statistical reporting provided by licensees on a quarterly basis.                            2) Based on an additional request, the State Committee of Information Technologies and Communications of the Kyrgyz Republic submits the data on the number of stationary Internet broadband subscriptions disaggregated by speed to the National Statistical Committee. 
+Data on the number of fixed (wired) broadband Internet subscribers are collected according to administrative statistical reporting forms on licensed types of activities in the field of electric and postal communication, approved by SAC under SCITC KR and the NSC KR. Licensed electric communication operators fill in these reporting forms on a quarterly basis.</t>
+  </si>
+  <si>
+    <t>1) According to the administrative statistical reporting forms, licensees provide quarterly reports.</t>
+  </si>
+  <si>
+    <t>According to the definition and methodology in the ITU Handbook on Telecommunications/ICT Administrative Data Collection Administrative Data Handbook.</t>
+  </si>
+  <si>
+    <t>This Indicator refers to fixed (wired) broadband technologies and does not include wireless broadband access technologies. Unit of measure: Per 100 inhabitants</t>
+  </si>
+  <si>
+    <t>The Agency develops annual reports on the Agency’s activities, which are freely available at the Agency’s official website and reflect the total number of Internet users, including wireless and mobile users.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By Internet speed: 256 kbps to less than 2 Mbps, 2 Mbps to less than 10 Mbps, equal to or exceed 10 Mbps. </t>
+  </si>
+  <si>
+    <t>The ITU develops international definitions, standards and methodologies for measuring information society and information economy and, in close cooperation with other regional and international organizations and through thematic expert groups; the ITU is a founder and a key partner in the Partnership on Measuring ICT for Development, assisting to keep track of SDG targets, and a member of the UN Committee for the Coordination of Statistical Activities (CCSA).</t>
+  </si>
+  <si>
+    <t>2)The Kyrgyz Republic SDG National Reporting Platform: https://sustainabledevelopment-kyrgyzstan.github.io Data are released twice a year, In July and December, in the Wor​ld Telecommun​ic​ation/ICT Indicators
+Database​​ and the ITU DataHub, see https://datahub.itu.int/.  International Telecommunication Union (ITU) Handbook for the Collection of Administrative Data on
+Telecommunications/ICT 2020: https://www.itu.int/en/ITU-
+D/Statistics/Pages/publications/handbook.aspx  . URL:
+http://www.itu.int/en/ITU-D/Statistics/Pages/default.aspx
+References:
+ITU Handbook for the Collection of Administrative Data on Telecommunications/ICT 2020:
+https://www.itu.int/en/ITU-D/Statistics/Pages/publications/handbook.aspx                                                                   1)  Administrative statistical reporting forms and instructions for completing them are publicly available on the website of the Service for Regulation and Supervision of the Communications Industry under the Ministry of Digital Development and Innovative Technologies of the Kyrgyz Republic. https://nas.gov.kg/dp/formy-otchetnosti/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -237,36 +246,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -274,15 +274,10 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 2 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -584,11 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Worksheet____1"/>
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,15 +602,15 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -624,7 +618,7 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>28</v>
       </c>
     </row>
@@ -638,7 +632,7 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -646,7 +640,7 @@
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -654,7 +648,7 @@
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -662,7 +656,7 @@
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -670,7 +664,7 @@
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -680,15 +674,15 @@
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -696,7 +690,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -710,7 +704,7 @@
       </c>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
@@ -718,7 +712,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
@@ -732,17 +726,21 @@
       </c>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -760,26 +758,32 @@
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="6" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="5"/>
-    </row>
-    <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="6"/>
+      <c r="B25" s="6" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="26" spans="1:2" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
